--- a/UMBC_Energy/Old_Raw_Station_Location.xlsx
+++ b/UMBC_Energy/Old_Raw_Station_Location.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Raw_Station_Location" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Sheet4" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Sheet2" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Raw_Station_Location!$C$1:$C$1000</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Sheet2!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="219">
   <si>
     <t>station</t>
   </si>
@@ -45,6 +46,12 @@
     <t>GHCND:USC00186350</t>
   </si>
   <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.nj.com%2Fnews%2F2015%2F04%2Fmapping_njs_unofficial_north_central_and_south_jer.html&amp;psig=AOvVaw3FzzwJcJGuFtXvW52cQ9v7&amp;ust=1595887950035000&amp;source=images&amp;cd=vfe&amp;ved=0CAIQjRxqFwoTCNCj64T46-oCFQAAAAAdAAAAABAN</t>
+  </si>
+  <si>
     <t>GHCND:US1DEKN0001</t>
   </si>
   <si>
@@ -147,9 +154,6 @@
     <t>GHCND:USC00280907</t>
   </si>
   <si>
-    <t>NJ</t>
-  </si>
-  <si>
     <t>GHCND:USC00281335</t>
   </si>
   <si>
@@ -432,18 +436,129 @@
     <t>GHCND:USW00013736</t>
   </si>
   <si>
+    <t>PJM-RTO</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>DC, DE, IL, IN, KY, MD, MI, NC, NJ, OH, PA, TN, VA, WV</t>
+  </si>
+  <si>
+    <t>MIDATL</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>DC, DE, MD, NJ, PA</t>
+  </si>
+  <si>
+    <t>WESTERN</t>
+  </si>
+  <si>
+    <t>IL, IN, KY, MD, MI, OH, PA, TN, VA, WV</t>
+  </si>
+  <si>
+    <t>SOUTHERN</t>
+  </si>
+  <si>
+    <t>NC, VA</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WV</t>
+  </si>
+  <si>
+    <t>mkt_region</t>
+  </si>
+  <si>
+    <t>WEST</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>WEC</t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
     <t>NorthSouth</t>
   </si>
   <si>
     <t>EastWest</t>
   </si>
   <si>
-    <t>Combined</t>
-  </si>
-  <si>
     <t>GHCND:USC00186350DC</t>
   </si>
   <si>
@@ -495,12 +610,6 @@
     <t>GHCND:USC00330862OH</t>
   </si>
   <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>Northwest</t>
   </si>
   <si>
@@ -508,12 +617,6 @@
   </si>
   <si>
     <t>GHCND:USC00338769OH</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>East</t>
   </si>
   <si>
     <t>Centraleast</t>
@@ -577,20 +680,41 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor rgb="FFF9F9F9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -599,11 +723,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -626,6 +759,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -698,141 +839,147 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" hidden="1">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" hidden="1">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" hidden="1">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" hidden="1">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -840,42 +987,42 @@
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -883,10 +1030,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -894,26 +1041,26 @@
     </row>
     <row r="30" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -921,10 +1068,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -932,10 +1079,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -943,10 +1090,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -954,10 +1101,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -965,10 +1112,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -976,34 +1123,34 @@
     </row>
     <row r="38" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -1011,10 +1158,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -1022,18 +1169,18 @@
     </row>
     <row r="43" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -1041,42 +1188,42 @@
     </row>
     <row r="45" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" hidden="1">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" hidden="1">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1084,10 +1231,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1095,10 +1242,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -1106,10 +1253,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1117,82 +1264,82 @@
     </row>
     <row r="53" hidden="1">
       <c r="A53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="54" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" hidden="1">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" hidden="1">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -1200,26 +1347,26 @@
     </row>
     <row r="63" hidden="1">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" hidden="1">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -1227,10 +1374,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -1238,10 +1385,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -1249,10 +1396,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1260,58 +1407,58 @@
     </row>
     <row r="69" hidden="1">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" hidden="1">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" hidden="1">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" hidden="1">
       <c r="A72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="73" hidden="1">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" hidden="1">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -1319,10 +1466,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -1330,34 +1477,34 @@
     </row>
     <row r="77" hidden="1">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="1">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" hidden="1">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -1365,10 +1512,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -1376,18 +1523,18 @@
     </row>
     <row r="82" hidden="1">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -1395,10 +1542,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -1406,74 +1553,74 @@
     </row>
     <row r="85" hidden="1">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" hidden="1">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" hidden="1">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" hidden="1">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="91" hidden="1">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" hidden="1">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -1481,58 +1628,58 @@
     </row>
     <row r="94" hidden="1">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" hidden="1">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" hidden="1">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" hidden="1">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" hidden="1">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" hidden="1">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -1540,18 +1687,18 @@
     </row>
     <row r="101" hidden="1">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -1559,26 +1706,26 @@
     </row>
     <row r="103" hidden="1">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" hidden="1">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -1586,10 +1733,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -1597,42 +1744,42 @@
     </row>
     <row r="107" hidden="1">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" hidden="1">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" hidden="1">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" hidden="1">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -1640,18 +1787,18 @@
     </row>
     <row r="112" hidden="1">
       <c r="A112" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -1659,10 +1806,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -1670,26 +1817,26 @@
     </row>
     <row r="115" hidden="1">
       <c r="A115" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" hidden="1">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -1697,10 +1844,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -1708,42 +1855,42 @@
     </row>
     <row r="119" hidden="1">
       <c r="A119" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" hidden="1">
       <c r="A120" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" hidden="1">
       <c r="A121" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" hidden="1">
       <c r="A122" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -1751,58 +1898,58 @@
     </row>
     <row r="124" hidden="1">
       <c r="A124" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" hidden="1">
       <c r="A125" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" hidden="1">
       <c r="A126" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" hidden="1">
       <c r="A127" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" hidden="1">
       <c r="A128" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" hidden="1">
       <c r="A129" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -2686,7 +2833,10 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G6"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2700,6 +2850,538 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="42.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(C2,"","")"),"DC")</f>
+        <v>DC</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," DE")</f>
+        <v> DE</v>
+      </c>
+      <c r="C6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," MD")</f>
+        <v> MD</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," NJ")</f>
+        <v> NJ</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," PA")</f>
+        <v> PA</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(C3,"","")"),"IL")</f>
+        <v>IL</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," IN")</f>
+        <v> IN</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," KY")</f>
+        <v> KY</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," MD")</f>
+        <v> MD</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," MI")</f>
+        <v> MI</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," OH")</f>
+        <v> OH</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," PA")</f>
+        <v> PA</v>
+      </c>
+      <c r="H7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," TN")</f>
+        <v> TN</v>
+      </c>
+      <c r="I7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," VA")</f>
+        <v> VA</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," WV")</f>
+        <v> WV</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SPLIT(C4,"","")"),"NC")</f>
+        <v>NC</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," VA")</f>
+        <v> VA</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f t="array" ref="A10:C19">TRANSPOSE(A6:J8)</f>
+        <v>DC</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ref="B22:B38" si="1">TRIM(A22)</f>
+        <v>DC</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>DE</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>MD</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>NJ</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>IN</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>KY</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>MD</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>MI</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>OH</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>TN</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>VA</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>WV</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>NC</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>VA</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="21.0"/>
     <col customWidth="1" min="3" max="3" width="24.0"/>
   </cols>
@@ -2712,7 +3394,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -2726,6 +3417,16 @@
         <f t="shared" ref="C2:C42" si="1">CONCAT(A2,B2)</f>
         <v>GHCND:USC00182325DC</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f t="shared" ref="F2:F42" si="2">CONCAT(D2,E2)</f>
+        <v>NorthWest</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -2738,473 +3439,873 @@
         <f t="shared" si="1"/>
         <v>GHCND:USC00186350DC</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00072730DE</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthCentral</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USW00013764DE</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthEast</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USW00013781DE</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00186620MD</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00187330MD</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthEast</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00188380MD</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthEast</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00188405MD</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthEast</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00460527MD</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USW00013701MD</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00281582NJ</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00283029NJ</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00283662NJ</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthWest</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00288644NJ</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USW00013724NJ</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthEast</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USW00014734NJ</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00330862OH</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00336196OH</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00338609OH</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00338769OH</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00338822OH</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00338830OH</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthCentral</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00361920PA</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthCentral</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00363632PA</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthEast</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00367409PA</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthCentral</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00367477PA</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00367931PA</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthCentral</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00368449PA</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthCentral</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00441593VA</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00443272VA</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthWest</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00444876VA</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00447506VA</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthWest</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00448062VA</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthWest</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00449301VA</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthWest</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00460580WV</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthWest</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00461220WV</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthCentral</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00465224WV</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthCentral</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00465353WV</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SouthWest</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USC00466867WV</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
         <v>GHCND:USW00013736WV</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>NorthEast</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3228,16 +4329,16 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -3245,336 +4346,335 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$37"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>